--- a/wbs_new.xlsx
+++ b/wbs_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3668350130089155/Dokument/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petter Eriksson\OneDrive\Dokument\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{85D2B03C-DCEC-45B5-91B2-2CB586F0DB06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{92872475-1749-4B47-B2D1-DCBAFFB740DA}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{85D2B03C-DCEC-45B5-91B2-2CB586F0DB06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{278F6E53-B279-4D1A-9F2A-B8E6E32F6AA0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8CEE9B2-317A-4CD6-8E8E-04EE1A72FE80}"/>
   </bookViews>
@@ -992,7 +992,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000"/>
+            <a:rPr lang="sv-SE" sz="900"/>
             <a:t>Create environment</a:t>
           </a:r>
         </a:p>
@@ -1029,7 +1029,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="sv-SE" sz="1000"/>
-            <a:t>Implement grid in Python</a:t>
+            <a:t>Implement grid in </a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1065,7 +1065,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="sv-SE" sz="1000"/>
-            <a:t>Implement obstacles in Python</a:t>
+            <a:t>Implement obstacles </a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1321,7 +1321,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000"/>
+            <a:rPr lang="sv-SE" sz="800"/>
             <a:t>Risk: Grid is of insufficient size</a:t>
           </a:r>
         </a:p>
@@ -1361,7 +1361,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="sv-SE" sz="900"/>
+            <a:rPr lang="sv-SE" sz="800"/>
             <a:t>Risk: Algorithm insufficient for many obstacles</a:t>
           </a:r>
         </a:p>
@@ -1401,7 +1401,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000"/>
+            <a:rPr lang="sv-SE" sz="800"/>
             <a:t>Risk: Algorithm not sufficient for items placed too close</a:t>
           </a:r>
         </a:p>
@@ -1581,7 +1581,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000"/>
+            <a:rPr lang="sv-SE" sz="900"/>
             <a:t>Modify policy and action-value function</a:t>
           </a:r>
         </a:p>
@@ -1621,7 +1621,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000"/>
+            <a:rPr lang="sv-SE" sz="900"/>
             <a:t>Risk: Rewards chosen are not optimal for learning</a:t>
           </a:r>
         </a:p>
@@ -1737,7 +1737,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000"/>
+            <a:rPr lang="sv-SE" sz="900"/>
             <a:t>Risk: The way to represent states is poorly chosen</a:t>
           </a:r>
         </a:p>
@@ -1778,7 +1778,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="sv-SE" sz="800"/>
-            <a:t>Risk: The original model is to describe multiple agents</a:t>
+            <a:t>Risk: The original model is too simple to describe multiple agents</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1857,8 +1857,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="sv-SE" sz="900"/>
-            <a:t>Risk: Integration with the RL algorithm is difficult </a:t>
+            <a:rPr lang="sv-SE" sz="800"/>
+            <a:t>Risk: Integration with the RL algorithm is complex</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1875,6 +1875,46 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E129CFC0-7088-47A2-BCB0-89EB3294A83F}" type="sibTrans" cxnId="{D5814C92-A625-41EE-B50D-5F4A6CE3A082}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{10B60AF1-FE8B-4377-A0F8-4F9DCE095266}">
+      <dgm:prSet custT="1"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="800"/>
+            <a:t>Risk: Policy is too greedy/ not greedy enough</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8855B2E2-E56C-486A-8EE8-A6542C82D5F6}" type="parTrans" cxnId="{011C943E-F6BD-49F3-A1C7-97DB6870191C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B31E8898-2D47-4D85-B2F3-28CC56DE958E}" type="sibTrans" cxnId="{011C943E-F6BD-49F3-A1C7-97DB6870191C}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1952,7 +1992,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CB3C5708-EE05-4359-9EC1-2CEF25A137B3}" type="pres">
-      <dgm:prSet presAssocID="{B6757561-6995-49EA-942F-7122F081D190}" presName="level2Shape" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="8"/>
+      <dgm:prSet presAssocID="{B6757561-6995-49EA-942F-7122F081D190}" presName="level2Shape" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="8" custScaleY="153538"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2C5F7338-B7E6-49ED-B793-166C036EA76F}" type="pres">
@@ -1960,7 +2000,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0F4DF0F4-F842-4F6D-9FC8-166370F1E496}" type="pres">
-      <dgm:prSet presAssocID="{1EE32587-05AF-49AD-BCDE-2F0590D0DA85}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{1EE32587-05AF-49AD-BCDE-2F0590D0DA85}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B281BE90-9461-4EB0-B44B-4FB7E7E919F5}" type="pres">
@@ -1976,7 +2016,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{82935B21-BD5A-416E-8AA8-F8983417A84E}" type="pres">
-      <dgm:prSet presAssocID="{C06DD07C-D4D1-410C-B542-D0221BCB8EC1}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{C06DD07C-D4D1-410C-B542-D0221BCB8EC1}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A0A7E7EE-2D33-40DD-8D50-EB84A707CE64}" type="pres">
@@ -1992,7 +2032,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1B10A825-37EF-4275-B640-8A26C76B6AF0}" type="pres">
-      <dgm:prSet presAssocID="{12A8B005-1019-4F94-B2D0-D82541F072FC}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{12A8B005-1019-4F94-B2D0-D82541F072FC}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{82D95F56-2370-4275-ACA7-4994697E493B}" type="pres">
@@ -2008,7 +2048,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A40B92CC-6102-4B5E-8268-B1F7EFB91367}" type="pres">
-      <dgm:prSet presAssocID="{EF465B4F-84A2-4514-8692-7D0413961803}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{EF465B4F-84A2-4514-8692-7D0413961803}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BFC578CA-64FE-48C2-896C-6F2C3D2D0A03}" type="pres">
@@ -2016,7 +2056,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2DA4CB74-2097-462A-A6EC-E084FC16C06C}" type="pres">
-      <dgm:prSet presAssocID="{F73409B5-A111-4435-BEF6-5E31EFBE0DA9}" presName="level2Shape" presStyleLbl="asst1" presStyleIdx="5" presStyleCnt="8"/>
+      <dgm:prSet presAssocID="{F73409B5-A111-4435-BEF6-5E31EFBE0DA9}" presName="level2Shape" presStyleLbl="asst1" presStyleIdx="5" presStyleCnt="8" custScaleY="102677"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FE2C4EAD-B2DD-4784-BB33-6B9ED7E970E9}" type="pres">
@@ -2040,7 +2080,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{76EBEB56-F016-425B-BE5F-CFFAB2275251}" type="pres">
-      <dgm:prSet presAssocID="{DE35633B-A54E-47D3-AA43-B76411B0CE6E}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{DE35633B-A54E-47D3-AA43-B76411B0CE6E}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F8394B20-D249-4FCC-AAC3-E76414927A53}" type="pres">
@@ -2080,7 +2120,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{27E77309-E093-4317-AE85-EDE5E9AA04A7}" type="pres">
-      <dgm:prSet presAssocID="{4E5333DB-A4F7-4DF3-A593-6C79C3B23DCE}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{4E5333DB-A4F7-4DF3-A593-6C79C3B23DCE}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2" custScaleX="149221" custScaleY="130104"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D2CA4145-F23E-4767-A2BF-CB1D5CFEFC96}" type="pres">
@@ -2088,7 +2128,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BF7BCA83-DDFD-4868-9B94-D2A5982B32FD}" type="pres">
-      <dgm:prSet presAssocID="{3CC0E9B5-5305-4C2A-9C90-6D2DD0B4AE23}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{3CC0E9B5-5305-4C2A-9C90-6D2DD0B4AE23}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3965E3BB-6EC8-4722-AE58-43303D93C5E8}" type="pres">
@@ -2096,7 +2136,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{824BBC39-8587-4A8A-9D46-80E1AF07E313}" type="pres">
-      <dgm:prSet presAssocID="{B80A5B78-0DAE-44E0-BDFD-41C0FB938652}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{B80A5B78-0DAE-44E0-BDFD-41C0FB938652}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="17"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{60248B6F-6E24-4CFC-B31A-6F0823AB6AAF}" type="pres">
@@ -2104,7 +2144,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{74C2A429-2A91-4023-8958-D62CF57FE9CD}" type="pres">
-      <dgm:prSet presAssocID="{3DF1396F-2C66-43A4-B0FC-D1B980EB2224}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{3DF1396F-2C66-43A4-B0FC-D1B980EB2224}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{00C2BEFB-9A2C-499D-AE6F-FA4B56C700B3}" type="pres">
@@ -2112,7 +2152,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{44A72142-927F-4F27-930E-B4163E69E4BA}" type="pres">
-      <dgm:prSet presAssocID="{45463636-BBC7-4663-9E95-FFE73635EAF5}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{45463636-BBC7-4663-9E95-FFE73635EAF5}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="17"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BC3A99E3-8A1C-4B11-9BE2-9382AFC03C56}" type="pres">
@@ -2120,7 +2160,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BA24CD23-DEC2-42E6-BCB0-0867D0807AF3}" type="pres">
-      <dgm:prSet presAssocID="{D6E0B554-48A1-49BF-AE81-F2C0849117EE}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{D6E0B554-48A1-49BF-AE81-F2C0849117EE}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4E8B0256-4A4D-4503-9EEB-AD02E82ED02D}" type="pres">
@@ -2128,7 +2168,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A7D36287-9498-4408-BA0C-3D26A6462708}" type="pres">
-      <dgm:prSet presAssocID="{07BBF0A3-CACE-4FAD-8F46-B72D9C015D77}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{07BBF0A3-CACE-4FAD-8F46-B72D9C015D77}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="17"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0EA08CF0-2A31-47FA-9523-F9580ABCE0F7}" type="pres">
@@ -2136,7 +2176,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B5620E67-5500-4261-A9DE-8AE83FBD7AC2}" type="pres">
-      <dgm:prSet presAssocID="{7396B2E2-DD91-452A-A1F9-EA7FA4660B0B}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{7396B2E2-DD91-452A-A1F9-EA7FA4660B0B}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CF366AE2-54B6-4580-92F6-9C147B3AC77E}" type="pres">
@@ -2144,7 +2184,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4B7881C0-0423-4C31-87BA-95B26B69E630}" type="pres">
-      <dgm:prSet presAssocID="{7B167796-95D5-494B-BDCE-38A58E04BA92}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="16" custScaleY="99840"/>
+      <dgm:prSet presAssocID="{7B167796-95D5-494B-BDCE-38A58E04BA92}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="17" custScaleX="117190" custScaleY="116096"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F570ABE8-5529-4CAC-AB35-6BC3A3C1B30C}" type="pres">
@@ -2152,7 +2192,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8831738D-D3A9-4510-8059-A61476FFAC8C}" type="pres">
-      <dgm:prSet presAssocID="{624C50A0-A7F4-4628-BA60-CED55DF46898}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{624C50A0-A7F4-4628-BA60-CED55DF46898}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B496682A-F710-42F8-8787-C0C30E61FDF0}" type="pres">
@@ -2160,7 +2200,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5DE99FF9-4E13-4699-A410-0A9C30CE3585}" type="pres">
-      <dgm:prSet presAssocID="{3B306A6D-9A1F-4835-821D-2351E6ABEFE1}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{3B306A6D-9A1F-4835-821D-2351E6ABEFE1}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="17"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{70C5FA47-A91D-4D3A-8554-397E7734BA66}" type="pres">
@@ -2168,7 +2208,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DDC4FDC1-2981-4481-A100-F4F53B63CFCD}" type="pres">
-      <dgm:prSet presAssocID="{76F87FD9-CA42-4E1F-B37F-12B0390DE53B}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{76F87FD9-CA42-4E1F-B37F-12B0390DE53B}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A2607E16-5114-4EAE-AFA4-72C5F99E0286}" type="pres">
@@ -2176,7 +2216,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F14FCB38-4F8D-470F-B32C-FD49BA913553}" type="pres">
-      <dgm:prSet presAssocID="{C57FA909-48EF-47EA-A589-FEACA275B337}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="16" custScaleX="104627" custScaleY="110216"/>
+      <dgm:prSet presAssocID="{C57FA909-48EF-47EA-A589-FEACA275B337}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="17" custScaleX="116517" custScaleY="119623"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0BDBC5E5-BAB8-4DB2-BC82-6CA060DB4DDC}" type="pres">
@@ -2184,7 +2224,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{755026CB-1617-4A38-8D95-54DDFC45124A}" type="pres">
-      <dgm:prSet presAssocID="{B26F9E05-9116-4231-8725-F01BFF60C2B5}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{B26F9E05-9116-4231-8725-F01BFF60C2B5}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3F2F3696-5563-41AF-B8C0-4DA789C10715}" type="pres">
@@ -2192,7 +2232,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0875E7D3-38C0-4A7C-897A-A5BD584EC6AD}" type="pres">
-      <dgm:prSet presAssocID="{7DE112D1-5441-4642-A2F5-8BDC7301154C}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{7DE112D1-5441-4642-A2F5-8BDC7301154C}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="17"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F8A03714-9114-4804-BC01-F26432610ED4}" type="pres">
@@ -2200,7 +2240,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EFE28258-ABFC-491E-A434-256834EEBA01}" type="pres">
-      <dgm:prSet presAssocID="{95B921F1-9C3F-4E28-BBD2-3EA07722F781}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{95B921F1-9C3F-4E28-BBD2-3EA07722F781}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{55EFFE12-18BA-47AC-B4E0-5ADCFF224BCE}" type="pres">
@@ -2208,7 +2248,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EC37D36E-0FB1-415F-8A9A-E07C9749A942}" type="pres">
-      <dgm:prSet presAssocID="{14343D50-362F-4BBF-81F0-AA0C223B28D4}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{14343D50-362F-4BBF-81F0-AA0C223B28D4}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="17" custScaleX="111491" custScaleY="130223"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FDBD097B-1EE6-4F03-B0A0-2CE1A3F30B80}" type="pres">
@@ -2216,7 +2256,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{66FE7035-8B1C-4DF2-97D2-49374B516713}" type="pres">
-      <dgm:prSet presAssocID="{B8B9CDA4-E686-44DE-AA75-AC9E199DF59C}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{B8B9CDA4-E686-44DE-AA75-AC9E199DF59C}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{16AF6378-1E37-48B3-B8A4-33A9C50C65C2}" type="pres">
@@ -2224,15 +2264,31 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2D95F4A5-0C18-41EF-A6DC-D4C8193E3D6E}" type="pres">
-      <dgm:prSet presAssocID="{F0A97096-0B76-44DB-866B-F5DC02FF28F5}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{F0A97096-0B76-44DB-866B-F5DC02FF28F5}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="17"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AF25C29B-DDE2-41FB-BFE3-1D9403E2965A}" type="pres">
       <dgm:prSet presAssocID="{F0A97096-0B76-44DB-866B-F5DC02FF28F5}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{C1BC325C-4FC8-4F2A-8606-DE4EEB961320}" type="pres">
+      <dgm:prSet presAssocID="{8855B2E2-E56C-486A-8EE8-A6542C82D5F6}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="22"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6ABAC0CC-BD97-4D69-AE35-85BF70F4D635}" type="pres">
+      <dgm:prSet presAssocID="{10B60AF1-FE8B-4377-A0F8-4F9DCE095266}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1048A0B5-D526-4A9F-9728-76EB77ABFE59}" type="pres">
+      <dgm:prSet presAssocID="{10B60AF1-FE8B-4377-A0F8-4F9DCE095266}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="17"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{444FB712-6AAC-4148-A361-45FF2662C96E}" type="pres">
+      <dgm:prSet presAssocID="{10B60AF1-FE8B-4377-A0F8-4F9DCE095266}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{ECBE80C1-DFCB-423E-ACDC-BA784CBC9CA2}" type="pres">
-      <dgm:prSet presAssocID="{95BD48F6-5A14-40BA-A58A-2EA2247E212D}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{95BD48F6-5A14-40BA-A58A-2EA2247E212D}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{52D7E98A-F836-41A5-B53E-6E5D6B555DA3}" type="pres">
@@ -2240,7 +2296,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{24F4C0DE-3F46-482C-835C-C63033534027}" type="pres">
-      <dgm:prSet presAssocID="{AD05B43A-9ADC-4F23-BF41-6C0E2A961100}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{AD05B43A-9ADC-4F23-BF41-6C0E2A961100}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="17"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3AE709F9-D4F1-48C8-86D1-23EB91969130}" type="pres">
@@ -2248,7 +2304,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F48DB24F-BDC7-4D80-92C5-FF414D7113D2}" type="pres">
-      <dgm:prSet presAssocID="{950576CA-16A4-4539-B5F6-A1DCD79C8AE2}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{950576CA-16A4-4539-B5F6-A1DCD79C8AE2}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BC079069-6D8F-4F02-95EE-0EFE56F3AEE4}" type="pres">
@@ -2256,7 +2312,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E4BC99E9-38BA-412E-A97B-129BAEAA568F}" type="pres">
-      <dgm:prSet presAssocID="{E3336DF8-8255-45E7-B808-B867BB4C4E99}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{E3336DF8-8255-45E7-B808-B867BB4C4E99}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="17"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1E96FC7E-6291-404B-AEE9-B7C4596CE59F}" type="pres">
@@ -2264,7 +2320,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E87E03B5-EDD1-427C-9C39-EF20EB962A66}" type="pres">
-      <dgm:prSet presAssocID="{E80D4C65-E87A-4F2D-A887-A37EFA20B6D6}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{E80D4C65-E87A-4F2D-A887-A37EFA20B6D6}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{611790BD-FAC4-4C43-B125-CE4ED8F9E38C}" type="pres">
@@ -2272,7 +2328,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6A9A9A19-2276-437F-BCCF-9B897097B5DD}" type="pres">
-      <dgm:prSet presAssocID="{52239F13-2CE5-4E18-B8B0-59337720459C}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{52239F13-2CE5-4E18-B8B0-59337720459C}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="17" custScaleX="112661" custScaleY="132688"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E69D0A98-FBD8-4DB1-8143-7F14CD8382E6}" type="pres">
@@ -2296,7 +2352,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BE1413A1-6C49-427C-B602-0AA5F762313B}" type="pres">
-      <dgm:prSet presAssocID="{F4212898-B2A4-4A0E-9147-AEC74B2B260E}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{F4212898-B2A4-4A0E-9147-AEC74B2B260E}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BD56419F-76CF-4E8C-A5E8-BFB16FDD21DD}" type="pres">
@@ -2304,7 +2360,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FE4319AE-D445-4F70-B64F-FF0BCEB79985}" type="pres">
-      <dgm:prSet presAssocID="{FBF199CF-418A-47D6-91C2-599834CFB470}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{FBF199CF-418A-47D6-91C2-599834CFB470}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="17"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A341FFDB-C627-4AFA-BC85-8CF79C37FA1C}" type="pres">
@@ -2312,7 +2368,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BBEEA2F2-B15A-4531-895F-DBB92B5492BA}" type="pres">
-      <dgm:prSet presAssocID="{16646E9B-3D94-4C9E-8C09-A9E036FEC5FB}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{16646E9B-3D94-4C9E-8C09-A9E036FEC5FB}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{28B05075-AA7E-46E8-9569-A12F80F5BCFA}" type="pres">
@@ -2320,7 +2376,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6DFF4991-77FD-4BA9-B5E8-4C7C6B01FADA}" type="pres">
-      <dgm:prSet presAssocID="{817C7BC3-6239-4FBE-AD1C-D7A2836E7D74}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="16" custScaleX="131629" custScaleY="120162"/>
+      <dgm:prSet presAssocID="{817C7BC3-6239-4FBE-AD1C-D7A2836E7D74}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="17" custScaleX="131629" custScaleY="120162"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C66C8703-C2D2-491E-BD7B-0BFCE001F536}" type="pres">
@@ -2328,7 +2384,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{770EEDCA-2438-4FA0-BA94-5A9AC25A6E63}" type="pres">
-      <dgm:prSet presAssocID="{85A01E9F-D72D-4574-A794-43243CE87634}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{85A01E9F-D72D-4574-A794-43243CE87634}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D03F5C4E-DF4A-4899-863F-E71A68D26338}" type="pres">
@@ -2336,7 +2392,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6647A39C-EA30-46E1-95D4-8405B3614117}" type="pres">
-      <dgm:prSet presAssocID="{430C55DE-6BCA-484D-8555-833348511095}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{430C55DE-6BCA-484D-8555-833348511095}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="17"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D90CFAF4-B46D-452D-8C52-CAA59A4B0364}" type="pres">
@@ -2344,7 +2400,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{738DBD4F-E41A-4814-86BD-F83C9994E23C}" type="pres">
-      <dgm:prSet presAssocID="{0E153E12-1F99-4A7B-8528-C492C2D8C6CB}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="21"/>
+      <dgm:prSet presAssocID="{0E153E12-1F99-4A7B-8528-C492C2D8C6CB}" presName="Name19" presStyleLbl="parChTrans1D4" presStyleIdx="21" presStyleCnt="22"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A87EE6F2-F596-4ADF-A24D-8B040848FA9C}" type="pres">
@@ -2352,7 +2408,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F855BCF9-CF5B-433F-B216-3261B09F5394}" type="pres">
-      <dgm:prSet presAssocID="{D4D73409-AC2E-451F-8FD2-1ECB59FACC1E}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="16"/>
+      <dgm:prSet presAssocID="{D4D73409-AC2E-451F-8FD2-1ECB59FACC1E}" presName="level2Shape" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="17" custScaleX="120163" custScaleY="112092"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{04497BCA-7A56-4A8F-B6A0-2EB7DC3E151F}" type="pres">
@@ -2378,6 +2434,7 @@
     <dgm:cxn modelId="{7643461A-0DD1-4134-A1D6-21666FC12E55}" srcId="{12D7D8D1-57F6-4FC9-9DFE-7A1A557D12BB}" destId="{4BDE17A3-30C0-4886-93A6-9496AE2EE0F2}" srcOrd="0" destOrd="0" parTransId="{DE35633B-A54E-47D3-AA43-B76411B0CE6E}" sibTransId="{4A3C5D3B-FEB7-436E-AF9F-171DBFE1B916}"/>
     <dgm:cxn modelId="{53E9C431-2BC1-417D-B3E5-D2995B621533}" type="presOf" srcId="{95BD48F6-5A14-40BA-A58A-2EA2247E212D}" destId="{ECBE80C1-DFCB-423E-ACDC-BA784CBC9CA2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{E2D1873A-1535-40AF-B326-F05B99BC8B5B}" srcId="{4E5333DB-A4F7-4DF3-A593-6C79C3B23DCE}" destId="{AD05B43A-9ADC-4F23-BF41-6C0E2A961100}" srcOrd="1" destOrd="0" parTransId="{95BD48F6-5A14-40BA-A58A-2EA2247E212D}" sibTransId="{DE5E23F1-4A5A-4AFC-9BDB-414652E5D1CB}"/>
+    <dgm:cxn modelId="{011C943E-F6BD-49F3-A1C7-97DB6870191C}" srcId="{F0A97096-0B76-44DB-866B-F5DC02FF28F5}" destId="{10B60AF1-FE8B-4377-A0F8-4F9DCE095266}" srcOrd="0" destOrd="0" parTransId="{8855B2E2-E56C-486A-8EE8-A6542C82D5F6}" sibTransId="{B31E8898-2D47-4D85-B2F3-28CC56DE958E}"/>
     <dgm:cxn modelId="{585E175C-A13C-4B37-8593-281B7511682F}" type="presOf" srcId="{817C7BC3-6239-4FBE-AD1C-D7A2836E7D74}" destId="{6DFF4991-77FD-4BA9-B5E8-4C7C6B01FADA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{E27C9262-6BF9-4B09-B71D-D453A5CFD756}" type="presOf" srcId="{16646E9B-3D94-4C9E-8C09-A9E036FEC5FB}" destId="{BBEEA2F2-B15A-4531-895F-DBB92B5492BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{497FD563-E91C-4D72-9BE5-2B379D44DD17}" type="presOf" srcId="{F73409B5-A111-4435-BEF6-5E31EFBE0DA9}" destId="{2DA4CB74-2097-462A-A6EC-E084FC16C06C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
@@ -2406,6 +2463,7 @@
     <dgm:cxn modelId="{C8B32082-A039-444E-96A5-3028D3662A68}" type="presOf" srcId="{AD05B43A-9ADC-4F23-BF41-6C0E2A961100}" destId="{24F4C0DE-3F46-482C-835C-C63033534027}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{2456D388-EB93-4368-B123-8EC28AD76182}" type="presOf" srcId="{EF465B4F-84A2-4514-8692-7D0413961803}" destId="{A40B92CC-6102-4B5E-8268-B1F7EFB91367}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{44A91489-E8C8-4EF7-89EC-ABD0C40ADBF2}" type="presOf" srcId="{DE35633B-A54E-47D3-AA43-B76411B0CE6E}" destId="{76EBEB56-F016-425B-BE5F-CFFAB2275251}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{EDA8458C-8373-4C75-B55D-878192A6EDFD}" type="presOf" srcId="{8855B2E2-E56C-486A-8EE8-A6542C82D5F6}" destId="{C1BC325C-4FC8-4F2A-8606-DE4EEB961320}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{4DE4DD8C-8A61-46E8-BFEF-8540537F49E6}" srcId="{AD05B43A-9ADC-4F23-BF41-6C0E2A961100}" destId="{E3336DF8-8255-45E7-B808-B867BB4C4E99}" srcOrd="0" destOrd="0" parTransId="{950576CA-16A4-4539-B5F6-A1DCD79C8AE2}" sibTransId="{5AF8260A-CEC0-4277-BC20-DD30F4B23812}"/>
     <dgm:cxn modelId="{EF5F788F-7C9B-484A-B129-753731A6252E}" type="presOf" srcId="{701C269F-FD2C-4606-BD10-74CA413EEACB}" destId="{5DF34752-4236-447E-9313-4E54ED0D9AC8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{ABE5BB90-87DD-4214-B011-135F8348221F}" srcId="{FBF199CF-418A-47D6-91C2-599834CFB470}" destId="{817C7BC3-6239-4FBE-AD1C-D7A2836E7D74}" srcOrd="0" destOrd="0" parTransId="{16646E9B-3D94-4C9E-8C09-A9E036FEC5FB}" sibTransId="{E8D9D74A-6973-4165-96E5-FF642EDDC2B9}"/>
@@ -2437,6 +2495,7 @@
     <dgm:cxn modelId="{AE2EF4C9-F473-45E8-83D0-4F973AF59799}" type="presOf" srcId="{B8B9CDA4-E686-44DE-AA75-AC9E199DF59C}" destId="{66FE7035-8B1C-4DF2-97D2-49374B516713}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{58CB2ED0-DBF6-4A87-BFE6-45C4F4E2368B}" srcId="{7DE112D1-5441-4642-A2F5-8BDC7301154C}" destId="{14343D50-362F-4BBF-81F0-AA0C223B28D4}" srcOrd="0" destOrd="0" parTransId="{95B921F1-9C3F-4E28-BBD2-3EA07722F781}" sibTransId="{FBA8DEA7-3071-4D57-AA7D-2F79406D28E9}"/>
     <dgm:cxn modelId="{D79101D2-A418-4D70-B093-32AEC0BEB01F}" srcId="{7E7590F4-3B96-4023-8CAF-59DB1F970A52}" destId="{B6757561-6995-49EA-942F-7122F081D190}" srcOrd="0" destOrd="0" parTransId="{3403A807-1909-449D-AA2A-D2C0EDA3628F}" sibTransId="{7784C8E6-2B80-460D-BAD6-B64FF5905899}"/>
+    <dgm:cxn modelId="{0117BBD7-CAC8-490B-88BF-49B67F77A510}" type="presOf" srcId="{10B60AF1-FE8B-4377-A0F8-4F9DCE095266}" destId="{1048A0B5-D526-4A9F-9728-76EB77ABFE59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{9C347CDD-4FBB-4891-8D6F-0C01E5DF434A}" srcId="{FE86921D-157B-43A0-8058-B07EC3CA452A}" destId="{430C55DE-6BCA-484D-8555-833348511095}" srcOrd="1" destOrd="0" parTransId="{85A01E9F-D72D-4574-A794-43243CE87634}" sibTransId="{85003E60-1251-48BE-96F9-674B89F08042}"/>
     <dgm:cxn modelId="{20D37CE0-1775-4982-A254-37D62C7F5B2C}" type="presOf" srcId="{F6E36816-2FCA-4E82-A292-AEB6AC9B8FE3}" destId="{3587E133-7017-47A4-AE8B-17D0CF0ECAEF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{CF382AE3-AE68-4979-B82B-4F30D2A0971F}" srcId="{07BBF0A3-CACE-4FAD-8F46-B72D9C015D77}" destId="{7B167796-95D5-494B-BDCE-38A58E04BA92}" srcOrd="0" destOrd="0" parTransId="{7396B2E2-DD91-452A-A1F9-EA7FA4660B0B}" sibTransId="{235B32CF-9F3E-4FFE-9039-82A90B8B4C0B}"/>
@@ -2530,6 +2589,10 @@
     <dgm:cxn modelId="{46986BBC-0EBB-440E-9618-8D26B770F091}" type="presParOf" srcId="{60248B6F-6E24-4CFC-B31A-6F0823AB6AAF}" destId="{16AF6378-1E37-48B3-B8A4-33A9C50C65C2}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{F7B14E24-54BA-4891-88B3-FD2F1B3B1BEA}" type="presParOf" srcId="{16AF6378-1E37-48B3-B8A4-33A9C50C65C2}" destId="{2D95F4A5-0C18-41EF-A6DC-D4C8193E3D6E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{C2F521B7-1D58-4C0A-BB9B-C71FD8C5C64C}" type="presParOf" srcId="{16AF6378-1E37-48B3-B8A4-33A9C50C65C2}" destId="{AF25C29B-DDE2-41FB-BFE3-1D9403E2965A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{4C1DC6BC-6C1C-4A4A-B217-EA97BFE26A5D}" type="presParOf" srcId="{AF25C29B-DDE2-41FB-BFE3-1D9403E2965A}" destId="{C1BC325C-4FC8-4F2A-8606-DE4EEB961320}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{BEA466EF-51BA-429A-9141-F001B4EF06C1}" type="presParOf" srcId="{AF25C29B-DDE2-41FB-BFE3-1D9403E2965A}" destId="{6ABAC0CC-BD97-4D69-AE35-85BF70F4D635}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{EC5290F4-9395-4AC6-8AD9-16DA6E076FF0}" type="presParOf" srcId="{6ABAC0CC-BD97-4D69-AE35-85BF70F4D635}" destId="{1048A0B5-D526-4A9F-9728-76EB77ABFE59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{80B648AD-F0F2-4473-A312-081E9C925DAA}" type="presParOf" srcId="{6ABAC0CC-BD97-4D69-AE35-85BF70F4D635}" destId="{444FB712-6AAC-4148-A361-45FF2662C96E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{EA2C1657-04D3-4EFD-8BCD-44E15B1CF360}" type="presParOf" srcId="{D2CA4145-F23E-4767-A2BF-CB1D5CFEFC96}" destId="{ECBE80C1-DFCB-423E-ACDC-BA784CBC9CA2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{3730982C-0432-4945-9882-C128902926BD}" type="presParOf" srcId="{D2CA4145-F23E-4767-A2BF-CB1D5CFEFC96}" destId="{52D7E98A-F836-41A5-B53E-6E5D6B555DA3}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{29E7A6D1-2223-4D3D-B9C4-F6BFF3D9982E}" type="presParOf" srcId="{52D7E98A-F836-41A5-B53E-6E5D6B555DA3}" destId="{24F4C0DE-3F46-482C-835C-C63033534027}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
@@ -2589,8 +2652,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4050723" y="498130"/>
-          <a:ext cx="1823455" cy="583596"/>
+          <a:off x="4039555" y="777165"/>
+          <a:ext cx="1576998" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2634,12 +2697,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="30480" rIns="30480" bIns="30480" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2652,14 +2715,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="sv-SE" sz="900" kern="1200"/>
+            <a:rPr lang="sv-SE" sz="800" kern="1200"/>
             <a:t>Simulate multiple agents transporting items in a warehouse, while interacting to avoid colliding</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4067816" y="515223"/>
-        <a:ext cx="1789269" cy="549410"/>
+        <a:off x="4054338" y="791948"/>
+        <a:ext cx="1547432" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B3036DAE-D0F0-4023-941C-3C407D470A2E}">
@@ -2669,8 +2732,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1908387" y="1081727"/>
-          <a:ext cx="3054064" cy="233438"/>
+          <a:off x="1648538" y="1281883"/>
+          <a:ext cx="3179515" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2681,16 +2744,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="3054064" y="0"/>
+                <a:pt x="3179515" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3054064" y="116719"/>
+                <a:pt x="3179515" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233438"/>
+                <a:pt x="0" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2731,8 +2794,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1470690" y="1315165"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="1270000" y="1483770"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2800,8 +2863,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1487783" y="1332258"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="1284783" y="1498553"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F23A9A9C-C4B1-4092-BE25-171201203C37}">
@@ -2811,8 +2874,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1009363" y="1898761"/>
-          <a:ext cx="899023" cy="233438"/>
+          <a:off x="871026" y="1988488"/>
+          <a:ext cx="777512" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2823,16 +2886,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="899023" y="0"/>
+                <a:pt x="777512" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="899023" y="116719"/>
+                <a:pt x="777512" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233438"/>
+                <a:pt x="0" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2873,8 +2936,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="571666" y="2132200"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="492488" y="2190375"/>
+          <a:ext cx="757076" cy="774933"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2918,12 +2981,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2936,14 +2999,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000" kern="1200"/>
+            <a:rPr lang="sv-SE" sz="900" kern="1200"/>
             <a:t>Create environment</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="588759" y="2149293"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="514662" y="2212549"/>
+        <a:ext cx="712728" cy="730585"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0F4DF0F4-F842-4F6D-9FC8-166370F1E496}">
@@ -2953,8 +3016,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="440357" y="2715796"/>
-          <a:ext cx="569006" cy="233438"/>
+          <a:off x="378926" y="2965309"/>
+          <a:ext cx="492099" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2965,16 +3028,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="569006" y="0"/>
+                <a:pt x="492099" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="569006" y="116719"/>
+                <a:pt x="492099" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233438"/>
+                <a:pt x="0" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3015,8 +3078,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2660" y="2949235"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="388" y="3167196"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3079,13 +3142,13 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="sv-SE" sz="1000" kern="1200"/>
-            <a:t>Implement grid in Python</a:t>
+            <a:t>Implement grid in </a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="19753" y="2966328"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="15171" y="3181979"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{82935B21-BD5A-416E-8AA8-F8983417A84E}">
@@ -3095,8 +3158,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="394637" y="3532831"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="333206" y="3671914"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3110,7 +3173,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3151,8 +3214,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2660" y="3766270"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="388" y="3873801"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3191,12 +3254,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="30480" rIns="30480" bIns="30480" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3209,14 +3272,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000" kern="1200"/>
+            <a:rPr lang="sv-SE" sz="800" kern="1200"/>
             <a:t>Risk: Grid is of insufficient size</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="19753" y="3783363"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="15171" y="3888584"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1B10A825-37EF-4275-B640-8A26C76B6AF0}">
@@ -3226,8 +3289,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1009363" y="2715796"/>
-          <a:ext cx="569006" cy="233438"/>
+          <a:off x="871026" y="2965309"/>
+          <a:ext cx="492099" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3241,13 +3304,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="569006" y="116719"/>
+                <a:pt x="492099" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="569006" y="233438"/>
+                <a:pt x="492099" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3288,8 +3351,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1140673" y="2949235"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="984587" y="3167196"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3352,13 +3415,13 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="sv-SE" sz="1000" kern="1200"/>
-            <a:t>Implement obstacles in Python</a:t>
+            <a:t>Implement obstacles </a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1157766" y="2966328"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="999370" y="3181979"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A40B92CC-6102-4B5E-8268-B1F7EFB91367}">
@@ -3368,8 +3431,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1532650" y="3532831"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="1317406" y="3671914"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3383,7 +3446,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3424,8 +3487,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1140673" y="3766270"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="984587" y="3873801"/>
+          <a:ext cx="757076" cy="518229"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3464,12 +3527,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="30480" rIns="30480" bIns="30480" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3482,14 +3545,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="sv-SE" sz="900" kern="1200"/>
+            <a:rPr lang="sv-SE" sz="800" kern="1200"/>
             <a:t>Risk: Algorithm insufficient for many obstacles</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1157766" y="3783363"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="999765" y="3888979"/>
+        <a:ext cx="726720" cy="487873"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FF68F5FE-EC91-4356-92B7-34FD46199B57}">
@@ -3499,8 +3562,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1908387" y="1898761"/>
-          <a:ext cx="899023" cy="233438"/>
+          <a:off x="1648538" y="1988488"/>
+          <a:ext cx="777512" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3514,13 +3577,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="899023" y="116719"/>
+                <a:pt x="777512" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="899023" y="233438"/>
+                <a:pt x="777512" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3561,8 +3624,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2369713" y="2132200"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="2047512" y="2190375"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3630,8 +3693,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2386806" y="2149293"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="2062295" y="2205158"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{76EBEB56-F016-425B-BE5F-CFFAB2275251}">
@@ -3641,8 +3704,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2761691" y="2715796"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="2380330" y="2695093"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3656,7 +3719,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3697,8 +3760,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2278685" y="2949235"/>
-          <a:ext cx="1057450" cy="677812"/>
+          <a:off x="1968787" y="2896980"/>
+          <a:ext cx="914525" cy="586199"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3737,12 +3800,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="30480" rIns="30480" bIns="30480" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3755,14 +3818,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000" kern="1200"/>
+            <a:rPr lang="sv-SE" sz="800" kern="1200"/>
             <a:t>Risk: Algorithm not sufficient for items placed too close</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2298537" y="2969087"/>
-        <a:ext cx="1017746" cy="638108"/>
+        <a:off x="1985956" y="2914149"/>
+        <a:ext cx="880187" cy="551861"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A6EEDABE-91C6-4E67-86D0-8E20655632FE}">
@@ -3772,8 +3835,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4962451" y="1081727"/>
-          <a:ext cx="3054064" cy="233438"/>
+          <a:off x="4828054" y="1281883"/>
+          <a:ext cx="3179515" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3787,13 +3850,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3054064" y="116719"/>
+                <a:pt x="3179515" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3054064" y="233438"/>
+                <a:pt x="3179515" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3834,8 +3897,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7578818" y="1315165"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="7629031" y="1483770"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3903,8 +3966,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7595911" y="1332258"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="7643814" y="1498553"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{118EF175-589B-40B0-B33F-D47ECF4FA96C}">
@@ -3914,8 +3977,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6627358" y="1898761"/>
-          <a:ext cx="1389156" cy="233438"/>
+          <a:off x="6735021" y="1988488"/>
+          <a:ext cx="1272549" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3926,16 +3989,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1389156" y="0"/>
+                <a:pt x="1272549" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1389156" y="116719"/>
+                <a:pt x="1272549" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233438"/>
+                <a:pt x="0" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3976,8 +4039,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6189661" y="2132200"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="6170162" y="2190375"/>
+          <a:ext cx="1129717" cy="656658"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4045,8 +4108,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6206754" y="2149293"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="6189395" y="2209608"/>
+        <a:ext cx="1091251" cy="618192"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BF7BCA83-DDFD-4868-9B94-D2A5982B32FD}">
@@ -4056,8 +4119,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5763723" y="2715796"/>
-          <a:ext cx="863635" cy="233438"/>
+          <a:off x="5697656" y="2847033"/>
+          <a:ext cx="1037364" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4068,16 +4131,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="863635" y="0"/>
+                <a:pt x="1037364" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="863635" y="116719"/>
+                <a:pt x="1037364" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233438"/>
+                <a:pt x="0" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4118,8 +4181,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5326025" y="2949235"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="5319117" y="3048920"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4187,8 +4250,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5343118" y="2966328"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="5333900" y="3063703"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{74C2A429-2A91-4023-8958-D62CF57FE9CD}">
@@ -4198,8 +4261,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5194716" y="3532831"/>
-          <a:ext cx="569006" cy="233438"/>
+          <a:off x="4655052" y="3553638"/>
+          <a:ext cx="1042603" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4210,16 +4273,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="569006" y="0"/>
+                <a:pt x="1042603" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="569006" y="116719"/>
+                <a:pt x="1042603" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233438"/>
+                <a:pt x="0" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4260,8 +4323,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4757019" y="3766270"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="4276514" y="3755525"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4329,8 +4392,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4774112" y="3783363"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="4291297" y="3770308"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BA24CD23-DEC2-42E6-BCB0-0867D0807AF3}">
@@ -4340,8 +4403,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4036451" y="4349866"/>
-          <a:ext cx="1158264" cy="233438"/>
+          <a:off x="3554045" y="4260243"/>
+          <a:ext cx="1101007" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4352,16 +4415,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1158264" y="0"/>
+                <a:pt x="1101007" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1158264" y="116719"/>
+                <a:pt x="1101007" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233438"/>
+                <a:pt x="0" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4402,8 +4465,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3598754" y="4583304"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="3175507" y="4462130"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4472,8 +4535,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3615847" y="4600397"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="3190290" y="4476913"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B5620E67-5500-4261-A9DE-8AE83FBD7AC2}">
@@ -4483,8 +4546,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3990731" y="5166901"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="3508325" y="4966848"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4498,7 +4561,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4539,8 +4602,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3598754" y="5400339"/>
-          <a:ext cx="875394" cy="582662"/>
+          <a:off x="3110436" y="5168735"/>
+          <a:ext cx="887218" cy="585957"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4579,12 +4642,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4597,14 +4660,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000" kern="1200"/>
+            <a:rPr lang="sv-SE" sz="900" kern="1200"/>
             <a:t>Risk: Rewards chosen are not optimal for learning</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3615820" y="5417405"/>
-        <a:ext cx="841262" cy="548530"/>
+        <a:off x="3127598" y="5185897"/>
+        <a:ext cx="852894" cy="551633"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8831738D-D3A9-4510-8059-A61476FFAC8C}">
@@ -4614,8 +4677,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5148996" y="4349866"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="4609332" y="4260243"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4629,7 +4692,13 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="100943"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="56506" y="100943"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="56506" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4670,8 +4739,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4757019" y="4583304"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="4287300" y="4462130"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4739,8 +4808,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4774112" y="4600397"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="4302083" y="4476913"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DDC4FDC1-2981-4481-A100-F4F53B63CFCD}">
@@ -4750,8 +4819,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5148996" y="5166901"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="4620119" y="4966848"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4765,7 +4834,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4806,8 +4875,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4736767" y="5400339"/>
-          <a:ext cx="915898" cy="643216"/>
+          <a:off x="4224777" y="5168735"/>
+          <a:ext cx="882123" cy="603758"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4870,8 +4939,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4755606" y="5419178"/>
-        <a:ext cx="878220" cy="605538"/>
+        <a:off x="4242460" y="5186418"/>
+        <a:ext cx="846757" cy="568392"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{755026CB-1617-4A38-8D95-54DDFC45124A}">
@@ -4881,8 +4950,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5194716" y="4349866"/>
-          <a:ext cx="1158264" cy="233438"/>
+          <a:off x="4655052" y="4260243"/>
+          <a:ext cx="1101007" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4896,13 +4965,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1158264" y="116719"/>
+                <a:pt x="1101007" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1158264" y="233438"/>
+                <a:pt x="1101007" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4943,8 +5012,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5915284" y="4583304"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="5377521" y="4462130"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5012,8 +5081,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5932377" y="4600397"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="5392304" y="4476913"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EFE28258-ABFC-491E-A434-256834EEBA01}">
@@ -5023,8 +5092,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6307261" y="5166901"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="5710339" y="4966848"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5038,7 +5107,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5079,8 +5148,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5915284" y="5400339"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="5334023" y="5168735"/>
+          <a:ext cx="844072" cy="657258"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5119,12 +5188,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5137,14 +5206,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000" kern="1200"/>
+            <a:rPr lang="sv-SE" sz="900" kern="1200"/>
             <a:t>Risk: The way to represent states is poorly chosen</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5932377" y="5417432"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="5353273" y="5187985"/>
+        <a:ext cx="805572" cy="618758"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{66FE7035-8B1C-4DF2-97D2-49374B516713}">
@@ -5154,8 +5223,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5763723" y="3532831"/>
-          <a:ext cx="569006" cy="233438"/>
+          <a:off x="5697656" y="3553638"/>
+          <a:ext cx="1042603" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5169,13 +5238,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="569006" y="116719"/>
+                <a:pt x="1042603" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="569006" y="233438"/>
+                <a:pt x="1042603" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5216,8 +5285,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5895032" y="3766270"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="6361721" y="3755525"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5285,19 +5354,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5912125" y="3783363"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="6376504" y="3770308"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{ECBE80C1-DFCB-423E-ACDC-BA784CBC9CA2}">
+    <dsp:sp modelId="{C1BC325C-4FC8-4F2A-8606-DE4EEB961320}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6627358" y="2715796"/>
-          <a:ext cx="863635" cy="233438"/>
+          <a:off x="6694539" y="4260243"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5308,16 +5377,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="863635" y="116719"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="863635" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5351,6 +5414,143 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
+    <dsp:sp modelId="{1048A0B5-D526-4A9F-9728-76EB77ABFE59}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6361721" y="4462130"/>
+          <a:ext cx="757076" cy="504717"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="30480" rIns="30480" bIns="30480" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="800" kern="1200"/>
+            <a:t>Risk: Policy is too greedy/ not greedy enough</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6376504" y="4476913"/>
+        <a:ext cx="727510" cy="475151"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{ECBE80C1-DFCB-423E-ACDC-BA784CBC9CA2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6735021" y="2847033"/>
+          <a:ext cx="1037364" cy="201887"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="100943"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1037364" y="100943"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1037364" y="201887"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
     <dsp:sp modelId="{24F4C0DE-3F46-482C-835C-C63033534027}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
@@ -5358,8 +5558,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7053297" y="2949235"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="7393847" y="3048920"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5427,8 +5627,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7070390" y="2966328"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="7408630" y="3063703"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F48DB24F-BDC7-4D80-92C5-FF414D7113D2}">
@@ -5438,8 +5638,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7445274" y="3532831"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="7726665" y="3553638"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5453,7 +5653,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5494,8 +5694,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7053297" y="3766270"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="7393847" y="3755525"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5539,12 +5739,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5557,14 +5757,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="sv-SE" sz="1000" kern="1200"/>
+            <a:rPr lang="sv-SE" sz="900" kern="1200"/>
             <a:t>Modify policy and action-value function</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7070390" y="3783363"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="7408630" y="3770308"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E87E03B5-EDD1-427C-9C39-EF20EB962A66}">
@@ -5574,8 +5774,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7445274" y="4349866"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="7726665" y="4260243"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5589,7 +5789,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5630,8 +5830,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7053297" y="4583304"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="7345920" y="4462130"/>
+          <a:ext cx="852930" cy="669699"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5689,13 +5889,13 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="sv-SE" sz="800" kern="1200"/>
-            <a:t>Risk: The original model is to describe multiple agents</a:t>
+            <a:t>Risk: The original model is too simple to describe multiple agents</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7070390" y="4600397"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="7365535" y="4481745"/>
+        <a:ext cx="813700" cy="630469"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9BDE46DF-15D7-4548-A282-0F46EDE3A910}">
@@ -5705,8 +5905,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8016515" y="1898761"/>
-          <a:ext cx="1389156" cy="233438"/>
+          <a:off x="8007570" y="1988488"/>
+          <a:ext cx="1458869" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5720,13 +5920,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1389156" y="116719"/>
+                <a:pt x="1458869" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1389156" y="233438"/>
+                <a:pt x="1458869" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5767,8 +5967,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8967975" y="2132200"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="9087901" y="2190375"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5836,8 +6036,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8985068" y="2149293"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="9102684" y="2205158"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BE1413A1-6C49-427C-B602-0AA5F762313B}">
@@ -5847,8 +6047,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8767446" y="2715796"/>
-          <a:ext cx="638225" cy="233438"/>
+          <a:off x="8876313" y="2695093"/>
+          <a:ext cx="590126" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5859,16 +6059,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="638225" y="0"/>
+                <a:pt x="590126" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="638225" y="116719"/>
+                <a:pt x="590126" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233438"/>
+                <a:pt x="0" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5909,8 +6109,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8329749" y="2949235"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="8497775" y="2896980"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5978,8 +6178,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8346842" y="2966328"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="8512558" y="2911763"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BBEEA2F2-B15A-4531-895F-DBB92B5492BA}">
@@ -5989,8 +6189,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8721726" y="3532831"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="8830593" y="3401698"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6004,7 +6204,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6045,8 +6245,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8191309" y="3766270"/>
-          <a:ext cx="1152272" cy="701260"/>
+          <a:off x="8378047" y="3603585"/>
+          <a:ext cx="996532" cy="606478"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6109,8 +6309,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8211848" y="3786809"/>
-        <a:ext cx="1111194" cy="660182"/>
+        <a:off x="8395810" y="3621348"/>
+        <a:ext cx="961006" cy="570952"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{770EEDCA-2438-4FA0-BA94-5A9AC25A6E63}">
@@ -6120,8 +6320,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9405672" y="2715796"/>
-          <a:ext cx="638225" cy="233438"/>
+          <a:off x="9466439" y="2695093"/>
+          <a:ext cx="590126" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6135,13 +6335,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116719"/>
+                <a:pt x="0" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="638225" y="116719"/>
+                <a:pt x="590126" y="100943"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="638225" y="233438"/>
+                <a:pt x="590126" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6182,8 +6382,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9606201" y="2949235"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="9678027" y="2896980"/>
+          <a:ext cx="757076" cy="504717"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6251,8 +6451,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9623294" y="2966328"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="9692810" y="2911763"/>
+        <a:ext cx="727510" cy="475151"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{738DBD4F-E41A-4814-86BD-F83C9994E23C}">
@@ -6262,8 +6462,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9998178" y="3532831"/>
-          <a:ext cx="91440" cy="233438"/>
+          <a:off x="10010845" y="3401698"/>
+          <a:ext cx="91440" cy="201887"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6277,7 +6477,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="233438"/>
+                <a:pt x="45720" y="201887"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6318,8 +6518,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9606201" y="3766270"/>
-          <a:ext cx="875394" cy="583596"/>
+          <a:off x="9601702" y="3603585"/>
+          <a:ext cx="909726" cy="565748"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6358,12 +6558,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="30480" rIns="30480" bIns="30480" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6376,14 +6576,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="sv-SE" sz="900" kern="1200"/>
-            <a:t>Risk: Integration with the RL algorithm is difficult </a:t>
+            <a:rPr lang="sv-SE" sz="800" kern="1200"/>
+            <a:t>Risk: Integration with the RL algorithm is complex</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9623294" y="3783363"/>
-        <a:ext cx="841208" cy="549410"/>
+        <a:off x="9618272" y="3620155"/>
+        <a:ext cx="876586" cy="532608"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -8275,7 +8475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD0347D-919C-45F8-A455-D9528D464ADE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
